--- a/sprint3/Team4Report.xlsx
+++ b/sprint3/Team4Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIT\CS555\GROUPPJ\PJ1\CS555\sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4CA97-3A12-4B60-92BE-C95C83EA2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2414A3A0-DBF5-4BC2-91A0-711024B32120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="213">
   <si>
     <t>Story ID</t>
   </si>
@@ -2520,8 +2520,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2790,7 @@
         <v>135</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2807,7 +2807,7 @@
         <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,12 +2947,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="24">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -16528,7 +16554,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
@@ -17807,7 +17833,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
